--- a/src/Tests/bin/Debug/net6.0/Templates/OutgoingLetters.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/OutgoingLetters.xlsx
@@ -221,6 +221,9 @@
   </x:si>
   <x:si>
     <x:t>913</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1021,7 +1024,7 @@
     </x:row>
     <x:row r="2" spans="1:16" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <x:c r="A2" s="26" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B2" s="27">
         <x:v>40554</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/OutgoingLetters.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/OutgoingLetters.xlsx
@@ -224,6 +224,12 @@
   </x:si>
   <x:si>
     <x:t>167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02.08.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1024,7 +1030,7 @@
     </x:row>
     <x:row r="2" spans="1:16" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <x:c r="A2" s="26" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B2" s="27">
         <x:v>40554</x:v>
@@ -1063,7 +1069,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="N2" s="37" t="s">
-        <x:v>43</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="O2" s="38" t="s">
         <x:v>37</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/OutgoingLetters.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/OutgoingLetters.xlsx
@@ -230,6 +230,12 @@
   </x:si>
   <x:si>
     <x:t>02.08.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.08.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1030,7 +1036,7 @@
     </x:row>
     <x:row r="2" spans="1:16" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <x:c r="A2" s="26" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B2" s="27">
         <x:v>40554</x:v>
@@ -1069,7 +1075,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="N2" s="37" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="O2" s="38" t="s">
         <x:v>37</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/OutgoingLetters.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/OutgoingLetters.xlsx
@@ -223,19 +223,10 @@
     <x:t>913</x:t>
   </x:si>
   <x:si>
-    <x:t>167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02.08.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>319</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03.08.2023</x:t>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1036,7 +1027,7 @@
     </x:row>
     <x:row r="2" spans="1:16" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <x:c r="A2" s="26" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B2" s="27">
         <x:v>40554</x:v>
@@ -1075,7 +1066,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="N2" s="37" t="s">
-        <x:v>58</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="O2" s="38" t="s">
         <x:v>37</x:v>
